--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spon1-App.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Spon1-App.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.085893666666667</v>
+        <v>0.5277743333333333</v>
       </c>
       <c r="H2">
-        <v>3.257681</v>
+        <v>1.583323</v>
       </c>
       <c r="I2">
-        <v>0.02840400986010361</v>
+        <v>0.01400965908295571</v>
       </c>
       <c r="J2">
-        <v>0.02840400986010361</v>
+        <v>0.01400965908295571</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="N2">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="O2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="P2">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="Q2">
-        <v>89.94510305003841</v>
+        <v>51.4987277804759</v>
       </c>
       <c r="R2">
-        <v>809.5059274503459</v>
+        <v>463.4885500242831</v>
       </c>
       <c r="S2">
-        <v>0.00899679123584461</v>
+        <v>0.004948444996793375</v>
       </c>
       <c r="T2">
-        <v>0.00899679123584461</v>
+        <v>0.004948444996793375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.085893666666667</v>
+        <v>0.5277743333333333</v>
       </c>
       <c r="H3">
-        <v>3.257681</v>
+        <v>1.583323</v>
       </c>
       <c r="I3">
-        <v>0.02840400986010361</v>
+        <v>0.01400965908295571</v>
       </c>
       <c r="J3">
-        <v>0.02840400986010361</v>
+        <v>0.01400965908295571</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>458.554443</v>
       </c>
       <c r="O3">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="P3">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="Q3">
-        <v>165.9804551585203</v>
+        <v>80.67108848378767</v>
       </c>
       <c r="R3">
-        <v>1493.824096426683</v>
+        <v>726.039796354089</v>
       </c>
       <c r="S3">
-        <v>0.01660225463815328</v>
+        <v>0.007751578755404078</v>
       </c>
       <c r="T3">
-        <v>0.01660225463815328</v>
+        <v>0.007751578755404076</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.085893666666667</v>
+        <v>0.5277743333333333</v>
       </c>
       <c r="H4">
-        <v>3.257681</v>
+        <v>1.583323</v>
       </c>
       <c r="I4">
-        <v>0.02840400986010361</v>
+        <v>0.01400965908295571</v>
       </c>
       <c r="J4">
-        <v>0.02840400986010361</v>
+        <v>0.01400965908295571</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>77.473134</v>
       </c>
       <c r="O4">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="P4">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="Q4">
-        <v>28.04252851580599</v>
+        <v>13.629443882698</v>
       </c>
       <c r="R4">
-        <v>252.382756642254</v>
+        <v>122.664994944282</v>
       </c>
       <c r="S4">
-        <v>0.002804963986105725</v>
+        <v>0.001309635330758257</v>
       </c>
       <c r="T4">
-        <v>0.002804963986105725</v>
+        <v>0.001309635330758257</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>101.751665</v>
       </c>
       <c r="I5">
-        <v>0.887181800778517</v>
+        <v>0.9003255417707673</v>
       </c>
       <c r="J5">
-        <v>0.8871818007785169</v>
+        <v>0.9003255417707672</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="N5">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="O5">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="P5">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="Q5">
-        <v>2809.380044865654</v>
+        <v>3309.546628859164</v>
       </c>
       <c r="R5">
-        <v>25284.42040379089</v>
+        <v>29785.91965973247</v>
       </c>
       <c r="S5">
-        <v>0.2810092479603119</v>
+        <v>0.318009981276496</v>
       </c>
       <c r="T5">
-        <v>0.2810092479603119</v>
+        <v>0.318009981276496</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>101.751665</v>
       </c>
       <c r="I6">
-        <v>0.887181800778517</v>
+        <v>0.9003255417707673</v>
       </c>
       <c r="J6">
-        <v>0.8871818007785169</v>
+        <v>0.9003255417707672</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>458.554443</v>
       </c>
       <c r="O6">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="P6">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="Q6">
         <v>5184.297563155289</v>
@@ -818,10 +818,10 @@
         <v>46658.6780683976</v>
       </c>
       <c r="S6">
-        <v>0.5185612256651492</v>
+        <v>0.4981523319884779</v>
       </c>
       <c r="T6">
-        <v>0.5185612256651492</v>
+        <v>0.4981523319884778</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>101.751665</v>
       </c>
       <c r="I7">
-        <v>0.887181800778517</v>
+        <v>0.9003255417707673</v>
       </c>
       <c r="J7">
-        <v>0.8871818007785169</v>
+        <v>0.9003255417707672</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>77.473134</v>
       </c>
       <c r="O7">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="P7">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="Q7">
         <v>875.8911530297901</v>
@@ -880,10 +880,10 @@
         <v>7883.020377268111</v>
       </c>
       <c r="S7">
-        <v>0.08761132715305593</v>
+        <v>0.08416322850579343</v>
       </c>
       <c r="T7">
-        <v>0.08761132715305593</v>
+        <v>0.08416322850579343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>9.681538</v>
       </c>
       <c r="I8">
-        <v>0.08441418936137941</v>
+        <v>0.08566479914627706</v>
       </c>
       <c r="J8">
-        <v>0.0844141893613794</v>
+        <v>0.08566479914627706</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.83048866666665</v>
+        <v>97.57717366666668</v>
       </c>
       <c r="N8">
-        <v>248.491466</v>
+        <v>292.731521</v>
       </c>
       <c r="O8">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="P8">
-        <v>0.3167437020391103</v>
+        <v>0.3532166605548384</v>
       </c>
       <c r="Q8">
-        <v>267.3088411949675</v>
+        <v>314.8990382621443</v>
       </c>
       <c r="R8">
-        <v>2405.779570754707</v>
+        <v>2834.091344359299</v>
       </c>
       <c r="S8">
-        <v>0.0267376628429538</v>
+        <v>0.03025823428154895</v>
       </c>
       <c r="T8">
-        <v>0.0267376628429538</v>
+        <v>0.03025823428154896</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>9.681538</v>
       </c>
       <c r="I9">
-        <v>0.08441418936137941</v>
+        <v>0.08566479914627706</v>
       </c>
       <c r="J9">
-        <v>0.0844141893613794</v>
+        <v>0.08566479914627706</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>458.554443</v>
       </c>
       <c r="O9">
-        <v>0.5845039034954311</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="P9">
-        <v>0.5845039034954312</v>
+        <v>0.5533024543641269</v>
       </c>
       <c r="Q9">
         <v>493.2791405525927</v>
@@ -1004,10 +1004,10 @@
         <v>4439.512264973334</v>
       </c>
       <c r="S9">
-        <v>0.04934042319212876</v>
+        <v>0.04739854362024506</v>
       </c>
       <c r="T9">
-        <v>0.04934042319212877</v>
+        <v>0.04739854362024506</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>9.681538</v>
       </c>
       <c r="I10">
-        <v>0.08441418936137941</v>
+        <v>0.08566479914627706</v>
       </c>
       <c r="J10">
-        <v>0.0844141893613794</v>
+        <v>0.08566479914627706</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>77.473134</v>
       </c>
       <c r="O10">
-        <v>0.0987523944654585</v>
+        <v>0.09348088508103472</v>
       </c>
       <c r="P10">
-        <v>0.09875239446545851</v>
+        <v>0.09348088508103473</v>
       </c>
       <c r="Q10">
         <v>83.339898977788</v>
@@ -1066,10 +1066,10 @@
         <v>750.059090800092</v>
       </c>
       <c r="S10">
-        <v>0.00833610332629685</v>
+        <v>0.008008021244483047</v>
       </c>
       <c r="T10">
-        <v>0.00833610332629685</v>
+        <v>0.008008021244483049</v>
       </c>
     </row>
   </sheetData>
